--- a/test/gpdets.xlsx
+++ b/test/gpdets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plots" sheetId="1" state="visible" r:id="rId2"/>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">daun</t>
   </si>
   <si>
-    <t xml:space="preserve">morpho_rb</t>
+    <t xml:space="preserve">rb_coll</t>
   </si>
   <si>
     <t xml:space="preserve">DIPTE</t>
@@ -261,11 +261,11 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.07"/>
@@ -583,11 +583,11 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.22"/>
   </cols>
@@ -678,7 +678,7 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -750,7 +750,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.22"/>
   </cols>

--- a/test/gpdets.xlsx
+++ b/test/gpdets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="plots" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t xml:space="preserve">plot</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t xml:space="preserve">C:\Users\cowebb\Desktop\GPTrees\FABAC\FORDSPLE\AP16-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\cowebb\Desktop\GPTrees\INDET\INDE0001\AP18-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\cowebb\Desktop\GPTrees\DIPTE\DIPTSUBL\AP18-11</t>
   </si>
 </sst>
 </file>
@@ -262,10 +268,10 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.07"/>
@@ -539,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -583,11 +589,11 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.22"/>
   </cols>
@@ -678,7 +684,7 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -744,13 +750,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.22"/>
   </cols>
@@ -768,6 +774,16 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
